--- a/src/assets/Scheme_Template-Instruction.xlsx
+++ b/src/assets/Scheme_Template-Instruction.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
+    <workbookView windowWidth="20490" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateScheme Template" sheetId="1" r:id="rId1"/>
     <sheet name="Scheme_Templete-Instruction" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Sl No</t>
   </si>
   <si>
-    <t>Scheme Funding Type</t>
-  </si>
-  <si>
-    <t>Scheme Funding Ratio</t>
-  </si>
-  <si>
-    <t>Sanction Order No</t>
+    <t>Scheme Name</t>
+  </si>
+  <si>
+    <t>Scheme Code</t>
   </si>
   <si>
     <t>Date of Sanction</t>
   </si>
   <si>
-    <t>Scheme Type</t>
-  </si>
-  <si>
-    <t>Fund Name</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>Scheme Code</t>
-  </si>
-  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -59,82 +44,46 @@
     <t>Example</t>
   </si>
   <si>
+    <t xml:space="preserve">Optional </t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
     <t xml:space="preserve">Serial number </t>
   </si>
   <si>
+    <t>1, 2, 3, ...</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date when the scheme was sanctioned (YYYY/MM/DD format)</t>
+  </si>
+  <si>
+    <t>"2024/02/15"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>Name of the scheme</t>
+  </si>
+  <si>
+    <t>"Youth Training"</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Unique code assigned to the scheme</t>
+  </si>
+  <si>
+    <t>"SC123"</t>
   </si>
   <si>
     <t>INSTRUCTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional </t>
-  </si>
-  <si>
-    <t>1, 2, 3, ...</t>
-  </si>
-  <si>
-    <t>String (Dropdown)</t>
-  </si>
-  <si>
-    <t>Type of funding used in the scheme</t>
-  </si>
-  <si>
-    <t>"State"</t>
-  </si>
-  <si>
-    <t>Ratio ( State : Central : CSR )</t>
-  </si>
-  <si>
-    <t>Funding distribution ratio (e.g., 100:0:0)</t>
-  </si>
-  <si>
-    <t>"30:40:30"</t>
-  </si>
-  <si>
-    <t>Official sanction order number</t>
-  </si>
-  <si>
-    <t>"SAN12345"</t>
-  </si>
-  <si>
-    <t>Date when the scheme was sanctioned (YYYY-MM-DD format)</t>
-  </si>
-  <si>
-    <t>"2024-02-15"</t>
-  </si>
-  <si>
-    <t>The type of scheme being implemented</t>
-  </si>
-  <si>
-    <t>"Central"</t>
-  </si>
-  <si>
-    <t>The name of the fund associated with the scheme</t>
-  </si>
-  <si>
-    <t>"Fund"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String </t>
-  </si>
-  <si>
-    <t>Name of the scheme</t>
-  </si>
-  <si>
-    <t>"Youth Training"</t>
-  </si>
-  <si>
-    <t>Unique code assigned to the scheme</t>
-  </si>
-  <si>
-    <t>"SC123"</t>
   </si>
   <si>
     <t>1. A maximum of 500 rows can be inserted in one Excel file.</t>
@@ -149,7 +98,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Scheme Name</t>
@@ -159,7 +108,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and </t>
@@ -167,20 +116,20 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fund Name</t>
+      <t>Scheme Code</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> are the same and inserted multiple times, an error message will be displayed.</t>
@@ -188,6 +137,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">3. </t>
     </r>
     <r>
@@ -196,7 +152,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Date of Sanction </t>
@@ -206,7 +162,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">cannot be a </t>
@@ -217,7 +173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>future date</t>
@@ -227,7 +183,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (it must be today or earlier).</t>
@@ -243,125 +199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scheme Funding Ratio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> should follow these rules based on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scheme Funding Type:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>State</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → 100:0:0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Central</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → 0:100:0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CSR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → 0:0:100
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>State + Central + CSR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → 30:30:40 (SUM need to be 100)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Do not change the Excel template heading names</t>
@@ -371,69 +209,420 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>. If the heading names are changed, the system will show an error message.</t>
     </r>
   </si>
   <si>
-    <t>6. Make sure to delete the Instruction Sheet before uploading the data.</t>
+    <t>5. Make sure to delete the Instruction Sheet before uploading the data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -456,36 +645,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -807,31 +1279,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,80 +1310,52 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="E2" s="1"/>
+    <row r="2" spans="4:4">
+      <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="C4" s="2"/>
+    <row r="3" spans="4:4">
+      <c r="D3" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
-      <formula1>"Central,RPL(Recognition Prior Learning),STT(Short Time Training),RTD(Recruit Train &amp; Deploy)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"State,Central,CSR(Corporate Social Responsibility),State+Central+CSR"</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>18264</formula1>
-      <formula2>58441</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1 G1:I1 D1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="25.2" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="25.19921875" customWidth="1"/>
-    <col min="4" max="4" width="60.8984375" customWidth="1"/>
+    <col min="1" max="2" width="25.2" customWidth="1"/>
+    <col min="4" max="4" width="60.9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -925,195 +1363,101 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="93.6">
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>